--- a/Course-5 : Agile Project Management/Activity Template_ Sprint Backlog.xlsx
+++ b/Course-5 : Agile Project Management/Activity Template_ Sprint Backlog.xlsx
@@ -15,47 +15,47 @@
     <definedName name="sprint_list">#REF!</definedName>
     <definedName name="sprint_length">#REF!</definedName>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Product Backlog'!$A$1:$G$13</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_83D8551B_8385_4C8A_A3EE_9C7533A16101_.wvu.FilterData">'Product Backlog'!$A$1:$F$55</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_6C2A834F_2AF8_4B95_B1FE_5B0B7A8C6CD4_.wvu.FilterData">'Product Backlog'!$A$1:$F$55</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_583F8FB2_103A_4642_BAB8_AAED836B71C9_.wvu.FilterData">'Product Backlog'!$A$1:$F$55</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_147310E6_D4D8_4D20_A759_CFE277EAA21C_.wvu.FilterData">'Product Backlog'!$A$1:$C$55</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_07D64F69_9062_4E6D_930A_86E0C29252EF_.wvu.FilterData">'Product Backlog'!$A$1:$F$55</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_FD95B530_0AA5_4474_9E9B_501CCD488B56_.wvu.FilterData">'Product Backlog'!$A$1:$F$55</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_4811B5DA_EF4B_45AB_B5AE_24D0FF059797_.wvu.FilterData">'Product Backlog'!$A$1:$F$55</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_046ECB41_C647_449D_A1E7_20DEC48911AC_.wvu.FilterData">'Product Backlog'!$A$1:$F$55</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_0ED5293F_CAF7_457B_AD30_65C202A7C820_.wvu.FilterData">'Product Backlog'!$A$1:$F$55</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_4760A44E_AB2E_4ABE_B57B_04DA5F234393_.wvu.FilterData">'Product Backlog'!$A$1:$C$55</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_C63FDB62_4E1E_416B_9252_A918E6357BE2_.wvu.FilterData">'Product Backlog'!$A$1:$F$55</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_019FC2B1_98D3_4949_8401_B724441808EC_.wvu.FilterData">'Product Backlog'!$A$1:$F$55</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_387E7DEC_DA6E_44F8_A87E_8119E2EFEF29_.wvu.FilterData">'Product Backlog'!$A$1:$F$55</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_6AF475AD_35E6_47D2_91B8_2A524532D6E3_.wvu.FilterData">'Product Backlog'!$A$1:$F$55</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_8BF90232_831F_454D_AC05_5A5A615693A7_.wvu.FilterData">'Product Backlog'!$A$1:$F$55</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_00AD8738_EA23_4C2C_980C_61DB4082B69D_.wvu.FilterData">'Product Backlog'!$A$1:$F$55</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_E69E76A5_36F4_4A4E_AA3D_0E677AD9E2EC_.wvu.FilterData">'Product Backlog'!$A$1:$F$55</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_C13E00A7_6477_4E67_8D04_86416FC25617_.wvu.FilterData">'Product Backlog'!$A$1:$F$55</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_CF21B911_2722_4B09_ADCD_6316E83AB94A_.wvu.FilterData">'Product Backlog'!$A$1:$F$55</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_0199D205_23A7_4654_B615_9FEBBD8FBA1A_.wvu.FilterData">'Product Backlog'!$A$1:$C$55</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_4AF610FA_78D0_41D3_93C0_D68F24347AC9_.wvu.FilterData">'Product Backlog'!$A$1:$F$55</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_BFEACF6D_190B_403A_A010_B5DEBB21A9A2_.wvu.FilterData">'Product Backlog'!$A$1:$C$55</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_EDDE4F10_099E_478F_9C93_C22AF7074B02_.wvu.FilterData">'Product Backlog'!$A$1:$F$55</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_4BDC57FD_D7E6_4500_9052_848A259B3F90_.wvu.FilterData">'Product Backlog'!$A$1:$F$55</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_9DA30FF6_DB49_4AC5_998B_181BC3482CAC_.wvu.FilterData">'Product Backlog'!$A$1:$F$55</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_69D81096_4FE8_4205_909F_91A666720786_.wvu.FilterData">'Product Backlog'!$A$1:$F$55</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_3B432629_C6C1_4EDB_A773_6A49974028E7_.wvu.FilterData">'Product Backlog'!$A$1:$F$55</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_41079ECA_8060_4B0D_8B01_DEC08A016613_.wvu.FilterData">'Product Backlog'!$A$1:$F$55</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_D2C10D27_50EF_4E4A_9A37_6ADB3FCE2D67_.wvu.FilterData">'Product Backlog'!$A$1:$F$55</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_D8B1E0A6_E08E_4BA7_868D_514EC5CBD05D_.wvu.FilterData">'Product Backlog'!$A$1:$F$55</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_985CC04F_D36A_48B0_BD4D_B10814EE97E8_.wvu.FilterData">'Product Backlog'!$A$1:$F$55</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_4CB9D1C8_97AB_4370_B704_F64DF96BE59E_.wvu.FilterData">'Product Backlog'!$A$1:$F$55</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{8BF90232-831F-454D-AC05-5A5A615693A7}" name="Teams Mobile post fishfood"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{147310E6-D4D8-4D20-A759-CFE277EAA21C}" name="Coffee Backlog"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{387E7DEC-DA6E-44F8-A87E-8119E2EFEF29}" name="Teams QR1 S2"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{6C2A834F-2AF8-4B95-B1FE-5B0B7A8C6CD4}" name="Teams QR1 S1"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{6AF475AD-35E6-47D2-91B8-2A524532D6E3}" name="Teams Fishfood OPEN"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{07D64F69-9062-4E6D-930A-86E0C29252EF}" name="UX Filter View"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{83D8551B-8385-4C8A-A3EE-9C7533A16101}" name="TQ1 S3"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{FD95B530-0AA5-4474-9E9B-501CCD488B56}" name="Teams - Huddle"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{019FC2B1-98D3-4949-8401-B724441808EC}" name="Leigh's Filter"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{583F8FB2-103A-4642-BAB8-AAED836B71C9}" name="Teams Prioritized Backlog"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{0ED5293F-CAF7-457B-AD30-65C202A7C820}" name="Teams - tempo"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{00AD8738-EA23-4C2C-980C-61DB4082B69D}" name="Teams Post-Dogfood OPEN"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{046ECB41-C647-449D-A1E7-20DEC48911AC}" name="Teams Dogfood OPEN"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{4811B5DA-EF4B-45AB-B5AE-24D0FF059797}" name="Teams - R1 S7"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{4760A44E-AB2E-4ABE-B57B-04DA5F234393}" name="Teams Quantum"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{C63FDB62-4E1E-416B-9252-A918E6357BE2}" name="UX - Designs Needed - Quantum"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{C13E00A7-6477-4E67-8D04-86416FC25617}" name="Teams Mobile post fishfood"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{BFEACF6D-190B-403A-A010-B5DEBB21A9A2}" name="Coffee Backlog"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{CF21B911-2722-4B09-ADCD-6316E83AB94A}" name="Teams QR1 S2"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{3B432629-C6C1-4EDB-A773-6A49974028E7}" name="Teams QR1 S1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{D2C10D27-50EF-4E4A-9A37-6ADB3FCE2D67}" name="Teams Fishfood OPEN"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{EDDE4F10-099E-478F-9C93-C22AF7074B02}" name="UX Filter View"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{4AF610FA-78D0-41D3-93C0-D68F24347AC9}" name="TQ1 S3"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{9DA30FF6-DB49-4AC5-998B-181BC3482CAC}" name="Teams - Huddle"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{985CC04F-D36A-48B0-BD4D-B10814EE97E8}" name="Leigh's Filter"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{41079ECA-8060-4B0D-8B01-DEC08A016613}" name="Teams Prioritized Backlog"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{69D81096-4FE8-4205-909F-91A666720786}" name="Teams - tempo"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{D8B1E0A6-E08E-4BA7-868D-514EC5CBD05D}" name="Teams Post-Dogfood OPEN"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{4CB9D1C8-97AB-4370-B704-F64DF96BE59E}" name="Teams Dogfood OPEN"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{E69E76A5-36F4-4A4E-AA3D-0E677AD9E2EC}" name="Teams - R1 S7"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{0199D205-23A7-4654-B615-9FEBBD8FBA1A}" name="Teams Quantum"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{4BDC57FD-D7E6-4500-9052-848A259B3F90}" name="UX - Designs Needed - Quantum"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="57">
   <si>
     <t>Epic</t>
   </si>
@@ -95,9 +95,6 @@
     <t>$$$</t>
   </si>
   <si>
-    <t>Current Sprint</t>
-  </si>
-  <si>
     <t>Plant care tips</t>
   </si>
   <si>
@@ -107,35 +104,6 @@
     <t xml:space="preserve">1) Receive plant care leaflet with each order
 2) Option to sign up for monthly emails with seasonal care tips
 </t>
-  </si>
-  <si>
-    <t>Bonsai Trees</t>
-  </si>
-  <si>
-    <t>Bonsai Selection</t>
-  </si>
-  <si>
-    <t>As a potential customer, I want to be able to select from a variety of different Bonsai trees so that I can pick the exact type I want.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) Ability to select from multiple tree species 
-2) Options to sort by species, size, and care requirements
-</t>
-  </si>
-  <si>
-    <t>Bonsai Techniques</t>
-  </si>
-  <si>
-    <t>As a Bonsai tree owner, I want to learn how to shape and style my tree so that I can control its growth.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) Can sign up for "Bonsai Basics" online course
-2) Can sign up for intermediate styling course
-3) Can sign up for advanced techniques online course
-</t>
-  </si>
-  <si>
-    <t>Next Sprint</t>
   </si>
   <si>
     <t>Plant care tools</t>
@@ -163,6 +131,20 @@
  </t>
   </si>
   <si>
+    <t>Expert help &amp; advice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a plant owner, I want to get expert help and advice quickly so that I know what to do if my plant gets sick. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Access to live chat support 
+2) Longer phone support hours
+</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
     <t>Return policy</t>
   </si>
   <si>
@@ -174,6 +156,31 @@
 </t>
   </si>
   <si>
+    <t>Bonsai Trees</t>
+  </si>
+  <si>
+    <t>Bonsai Selection</t>
+  </si>
+  <si>
+    <t>As a potential customer, I want to be able to select from a variety of different Bonsai trees so that I can pick the exact type I want.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Ability to select from multiple tree species 
+2) Options to sort by species, size, and care requirements
+</t>
+  </si>
+  <si>
+    <t>Bonsai Shipping</t>
+  </si>
+  <si>
+    <t>As a customer, I want to know that my tree will be shipped securely so that it arrives in good condition.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Can review graphic explaining packing and shipping process during checkout
+2) Signature required when a Bonsai shipment is received
+</t>
+  </si>
+  <si>
     <t>Bonsai Styles</t>
   </si>
   <si>
@@ -182,6 +189,18 @@
   <si>
     <t xml:space="preserve">1) Customers can visit a guide to different styles (formal &amp; informal upright, broom, cascade, etc.) on website
 2) Customers can take a quiz to match their' trees to suitable styles
+</t>
+  </si>
+  <si>
+    <t>Bonsai Techniques</t>
+  </si>
+  <si>
+    <t>As a Bonsai tree owner, I want to learn how to shape and style my tree so that I can control its growth.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Can sign up for "Bonsai Basics" online course
+2) Can sign up for intermediate styling course
+3) Can sign up for advanced techniques online course
 </t>
   </si>
   <si>
@@ -207,35 +226,16 @@
 </t>
   </si>
   <si>
-    <t>Expert help &amp; advice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a plant owner, I want to get expert help and advice quickly so that I know what to do if my plant gets sick. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) Access to live chat support 
-2) Longer phone support hours
-</t>
-  </si>
-  <si>
-    <t>$</t>
-  </si>
-  <si>
-    <t>Bonsai Shipping</t>
-  </si>
-  <si>
-    <t>As a customer, I want to know that my tree will be shipped securely so that it arrives in good condition.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) Can review graphic explaining packing and shipping process during checkout
-2) Signature required when a Bonsai shipment is received
-</t>
+    <t>Current Sprint</t>
   </si>
   <si>
     <t>Sprints</t>
   </si>
   <si>
     <t>Name</t>
+  </si>
+  <si>
+    <t>Next Sprint</t>
   </si>
   <si>
     <t>Start date</t>
@@ -482,6 +482,15 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="top"/>
     </xf>
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
@@ -494,20 +503,11 @@
     <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -717,9 +717,7 @@
       <c r="F2" s="10">
         <v>8.0</v>
       </c>
-      <c r="G2" s="11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G2" s="11"/>
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
       <c r="J2" s="12"/>
@@ -744,13 +742,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="8" t="s">
         <v>14</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>15</v>
       </c>
       <c r="E3" s="14" t="s">
         <v>11</v>
@@ -758,9 +756,7 @@
       <c r="F3" s="15">
         <v>8.0</v>
       </c>
-      <c r="G3" s="11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" s="11"/>
       <c r="H3" s="12"/>
       <c r="I3" s="16"/>
       <c r="J3" s="12"/>
@@ -781,27 +777,25 @@
       <c r="Y3" s="12"/>
     </row>
     <row r="4">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="D4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="E4" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="10">
+      <c r="F4" s="14">
         <v>13.0</v>
       </c>
-      <c r="G4" s="11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" s="11"/>
       <c r="H4" s="16"/>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
@@ -822,27 +816,25 @@
       <c r="Y4" s="12"/>
     </row>
     <row r="5">
-      <c r="A5" s="17" t="s">
-        <v>16</v>
+      <c r="A5" s="13" t="s">
+        <v>7</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="D5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="20" t="s">
-        <v>22</v>
+      <c r="E5" s="15" t="s">
+        <v>18</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>11</v>
+      <c r="F5" s="14">
+        <v>5.0</v>
       </c>
-      <c r="F5" s="10">
-        <v>21.0</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>23</v>
-      </c>
+      <c r="G5" s="11"/>
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
@@ -863,68 +855,64 @@
       <c r="Y5" s="12"/>
     </row>
     <row r="6">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="E6" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>26</v>
+      <c r="F6" s="14">
+        <v>8.0</v>
       </c>
-      <c r="E6" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="14">
-        <v>13.0</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22"/>
-      <c r="U6" s="22"/>
-      <c r="V6" s="22"/>
-      <c r="W6" s="22"/>
-      <c r="X6" s="22"/>
-      <c r="Y6" s="22"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="19"/>
+      <c r="X6" s="19"/>
+      <c r="Y6" s="19"/>
     </row>
     <row r="7">
       <c r="A7" s="13" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>30</v>
-      </c>
       <c r="E7" s="15" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F7" s="14">
         <v>5.0</v>
       </c>
-      <c r="G7" s="11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" s="11"/>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
@@ -945,27 +933,25 @@
       <c r="Y7" s="12"/>
     </row>
     <row r="8">
-      <c r="A8" s="13" t="s">
-        <v>7</v>
+      <c r="A8" s="20" t="s">
+        <v>29</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="D8" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>33</v>
+      <c r="E8" s="10" t="s">
+        <v>11</v>
       </c>
-      <c r="E8" s="15" t="s">
-        <v>27</v>
+      <c r="F8" s="10">
+        <v>13.0</v>
       </c>
-      <c r="F8" s="14">
-        <v>5.0</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" s="11"/>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
@@ -986,27 +972,25 @@
       <c r="Y8" s="12"/>
     </row>
     <row r="9">
-      <c r="A9" s="24" t="s">
-        <v>16</v>
+      <c r="A9" s="20" t="s">
+        <v>29</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="D9" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="20" t="s">
-        <v>36</v>
-      </c>
       <c r="E9" s="14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F9" s="14">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
-      <c r="G9" s="11" t="s">
-        <v>23</v>
-      </c>
+      <c r="G9" s="11"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
@@ -1027,27 +1011,25 @@
       <c r="Y9" s="12"/>
     </row>
     <row r="10">
-      <c r="A10" s="17" t="s">
-        <v>16</v>
+      <c r="A10" s="25" t="s">
+        <v>29</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="D10" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="20" t="s">
-        <v>39</v>
-      </c>
       <c r="E10" s="14" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F10" s="14">
-        <v>13.0</v>
+        <v>8.0</v>
       </c>
-      <c r="G10" s="11" t="s">
-        <v>23</v>
-      </c>
+      <c r="G10" s="11"/>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
@@ -1068,27 +1050,25 @@
       <c r="Y10" s="12"/>
     </row>
     <row r="11">
-      <c r="A11" s="17" t="s">
-        <v>16</v>
+      <c r="A11" s="20" t="s">
+        <v>29</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="D11" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="20" t="s">
-        <v>42</v>
+      <c r="E11" s="10" t="s">
+        <v>11</v>
       </c>
-      <c r="E11" s="26" t="s">
-        <v>27</v>
+      <c r="F11" s="10">
+        <v>21.0</v>
       </c>
-      <c r="F11" s="15">
-        <v>13.0</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>23</v>
-      </c>
+      <c r="G11" s="11"/>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
@@ -1109,27 +1089,25 @@
       <c r="Y11" s="12"/>
     </row>
     <row r="12">
-      <c r="A12" s="6" t="s">
-        <v>7</v>
+      <c r="A12" s="20" t="s">
+        <v>29</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="D12" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>45</v>
-      </c>
       <c r="E12" s="14" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="F12" s="14">
-        <v>8.0</v>
+        <v>13.0</v>
       </c>
-      <c r="G12" s="11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" s="11"/>
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
@@ -1150,27 +1128,25 @@
       <c r="Y12" s="12"/>
     </row>
     <row r="13">
-      <c r="A13" s="17" t="s">
-        <v>16</v>
+      <c r="A13" s="20" t="s">
+        <v>29</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="19" t="s">
-        <v>48</v>
+      <c r="E13" s="26" t="s">
+        <v>18</v>
       </c>
-      <c r="D13" s="20" t="s">
-        <v>49</v>
+      <c r="F13" s="15">
+        <v>13.0</v>
       </c>
-      <c r="E13" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" s="14">
-        <v>5.0</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>23</v>
-      </c>
+      <c r="G13" s="11"/>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
@@ -1192,12 +1168,12 @@
     </row>
     <row r="14">
       <c r="A14" s="27"/>
-      <c r="B14" s="22"/>
+      <c r="B14" s="19"/>
       <c r="C14" s="28"/>
       <c r="D14" s="27"/>
       <c r="E14" s="27"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
@@ -1219,12 +1195,12 @@
     </row>
     <row r="15">
       <c r="A15" s="27"/>
-      <c r="B15" s="22"/>
+      <c r="B15" s="19"/>
       <c r="C15" s="28"/>
       <c r="D15" s="27"/>
       <c r="E15" s="27"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
@@ -1246,12 +1222,12 @@
     </row>
     <row r="16">
       <c r="A16" s="27"/>
-      <c r="B16" s="22"/>
+      <c r="B16" s="19"/>
       <c r="C16" s="28"/>
       <c r="D16" s="27"/>
       <c r="E16" s="27"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
@@ -1273,12 +1249,12 @@
     </row>
     <row r="17">
       <c r="A17" s="29"/>
-      <c r="B17" s="22"/>
+      <c r="B17" s="19"/>
       <c r="C17" s="28"/>
       <c r="D17" s="27"/>
       <c r="E17" s="27"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
@@ -1300,12 +1276,12 @@
     </row>
     <row r="18">
       <c r="A18" s="29"/>
-      <c r="B18" s="22"/>
+      <c r="B18" s="19"/>
       <c r="C18" s="28"/>
       <c r="D18" s="27"/>
       <c r="E18" s="29"/>
       <c r="F18" s="12"/>
-      <c r="G18" s="22"/>
+      <c r="G18" s="19"/>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
@@ -1327,12 +1303,12 @@
     </row>
     <row r="19">
       <c r="A19" s="29"/>
-      <c r="B19" s="22"/>
+      <c r="B19" s="19"/>
       <c r="C19" s="28"/>
       <c r="D19" s="27"/>
       <c r="E19" s="29"/>
       <c r="F19" s="12"/>
-      <c r="G19" s="22"/>
+      <c r="G19" s="19"/>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
@@ -1354,12 +1330,12 @@
     </row>
     <row r="20">
       <c r="A20" s="29"/>
-      <c r="B20" s="22"/>
+      <c r="B20" s="19"/>
       <c r="C20" s="28"/>
       <c r="D20" s="27"/>
       <c r="E20" s="29"/>
       <c r="F20" s="12"/>
-      <c r="G20" s="22"/>
+      <c r="G20" s="19"/>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
@@ -1381,12 +1357,12 @@
     </row>
     <row r="21">
       <c r="A21" s="29"/>
-      <c r="B21" s="22"/>
+      <c r="B21" s="19"/>
       <c r="C21" s="28"/>
       <c r="D21" s="27"/>
       <c r="E21" s="29"/>
       <c r="F21" s="12"/>
-      <c r="G21" s="22"/>
+      <c r="G21" s="19"/>
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
@@ -1570,7 +1546,7 @@
     </row>
     <row r="28">
       <c r="A28" s="29"/>
-      <c r="B28" s="22"/>
+      <c r="B28" s="19"/>
       <c r="C28" s="28"/>
       <c r="D28" s="29"/>
       <c r="E28" s="29"/>
@@ -1597,7 +1573,7 @@
     </row>
     <row r="29">
       <c r="A29" s="29"/>
-      <c r="B29" s="22"/>
+      <c r="B29" s="19"/>
       <c r="C29" s="28"/>
       <c r="D29" s="29"/>
       <c r="E29" s="29"/>
@@ -1624,7 +1600,7 @@
     </row>
     <row r="30">
       <c r="A30" s="29"/>
-      <c r="B30" s="22"/>
+      <c r="B30" s="19"/>
       <c r="C30" s="28"/>
       <c r="D30" s="29"/>
       <c r="E30" s="29"/>
@@ -1651,7 +1627,7 @@
     </row>
     <row r="31">
       <c r="A31" s="29"/>
-      <c r="B31" s="22"/>
+      <c r="B31" s="19"/>
       <c r="C31" s="28"/>
       <c r="D31" s="29"/>
       <c r="E31" s="29"/>
@@ -1678,7 +1654,7 @@
     </row>
     <row r="32">
       <c r="A32" s="29"/>
-      <c r="B32" s="22"/>
+      <c r="B32" s="19"/>
       <c r="C32" s="28"/>
       <c r="D32" s="29"/>
       <c r="E32" s="29"/>
@@ -1705,7 +1681,7 @@
     </row>
     <row r="33">
       <c r="A33" s="29"/>
-      <c r="B33" s="22"/>
+      <c r="B33" s="19"/>
       <c r="C33" s="28"/>
       <c r="D33" s="29"/>
       <c r="E33" s="29"/>
@@ -2597,19 +2573,19 @@
   </sheetData>
   <autoFilter ref="$A$1:$G$13">
     <sortState ref="A1:G13">
+      <sortCondition descending="1" ref="A1:A13"/>
       <sortCondition descending="1" ref="E1:E13"/>
-      <sortCondition descending="1" ref="A1:A13"/>
       <sortCondition ref="G1:G13"/>
     </sortState>
   </autoFilter>
   <customSheetViews>
-    <customSheetView guid="{83D8551B-8385-4C8A-A3EE-9C7533A16101}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{4AF610FA-78D0-41D3-93C0-D68F24347AC9}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1:$F$55"/>
     </customSheetView>
-    <customSheetView guid="{046ECB41-C647-449D-A1E7-20DEC48911AC}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{4CB9D1C8-97AB-4370-B704-F64DF96BE59E}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1:$F$55"/>
     </customSheetView>
-    <customSheetView guid="{8BF90232-831F-454D-AC05-5A5A615693A7}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{C13E00A7-6477-4E67-8D04-86416FC25617}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1:$F$55">
         <filterColumn colId="0">
           <filters blank="1">
@@ -2619,7 +2595,7 @@
         </filterColumn>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{4760A44E-AB2E-4ABE-B57B-04DA5F234393}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{0199D205-23A7-4654-B615-9FEBBD8FBA1A}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1:$C$55">
         <filterColumn colId="0">
           <filters>
@@ -2629,22 +2605,22 @@
         </filterColumn>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{019FC2B1-98D3-4949-8401-B724441808EC}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{985CC04F-D36A-48B0-BD4D-B10814EE97E8}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1:$F$55"/>
     </customSheetView>
-    <customSheetView guid="{FD95B530-0AA5-4474-9E9B-501CCD488B56}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{9DA30FF6-DB49-4AC5-998B-181BC3482CAC}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1:$F$55"/>
     </customSheetView>
-    <customSheetView guid="{0ED5293F-CAF7-457B-AD30-65C202A7C820}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{69D81096-4FE8-4205-909F-91A666720786}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1:$F$55"/>
     </customSheetView>
-    <customSheetView guid="{6AF475AD-35E6-47D2-91B8-2A524532D6E3}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{D2C10D27-50EF-4E4A-9A37-6ADB3FCE2D67}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1:$F$55"/>
     </customSheetView>
-    <customSheetView guid="{C63FDB62-4E1E-416B-9252-A918E6357BE2}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{4BDC57FD-D7E6-4500-9052-848A259B3F90}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1:$F$55"/>
     </customSheetView>
-    <customSheetView guid="{147310E6-D4D8-4D20-A759-CFE277EAA21C}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{BFEACF6D-190B-403A-A010-B5DEBB21A9A2}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1:$C$55">
         <filterColumn colId="0">
           <filters blank="1">
@@ -2654,22 +2630,22 @@
         </filterColumn>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{6C2A834F-2AF8-4B95-B1FE-5B0B7A8C6CD4}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{3B432629-C6C1-4EDB-A773-6A49974028E7}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1:$F$55"/>
     </customSheetView>
-    <customSheetView guid="{583F8FB2-103A-4642-BAB8-AAED836B71C9}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{41079ECA-8060-4B0D-8B01-DEC08A016613}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1:$F$55"/>
     </customSheetView>
-    <customSheetView guid="{00AD8738-EA23-4C2C-980C-61DB4082B69D}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{D8B1E0A6-E08E-4BA7-868D-514EC5CBD05D}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1:$F$55"/>
     </customSheetView>
-    <customSheetView guid="{387E7DEC-DA6E-44F8-A87E-8119E2EFEF29}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{CF21B911-2722-4B09-ADCD-6316E83AB94A}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1:$F$55"/>
     </customSheetView>
-    <customSheetView guid="{07D64F69-9062-4E6D-930A-86E0C29252EF}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{EDDE4F10-099E-478F-9C93-C22AF7074B02}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1:$F$55"/>
     </customSheetView>
-    <customSheetView guid="{4811B5DA-EF4B-45AB-B5AE-24D0FF059797}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{E69E76A5-36F4-4A4E-AA3D-0E677AD9E2EC}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1:$F$55"/>
     </customSheetView>
   </customSheetViews>
@@ -2739,11 +2715,11 @@
         <v>5</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="H1" s="41"/>
       <c r="I1" s="42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L1" s="43"/>
       <c r="M1" s="43"/>
@@ -2762,45 +2738,23 @@
     </row>
     <row r="2">
       <c r="A2" s="44" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("filter(backlog,sprint=""Current Sprint"")"),"Plant Care Initiatives")</f>
-        <v>Plant Care Initiatives</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("filter(backlog,sprint=""Current Sprint"")"),"#N/A")</f>
+        <v>#N/A</v>
       </c>
-      <c r="B2" s="45" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Low-maintenance options")</f>
-        <v>Low-maintenance options</v>
-      </c>
-      <c r="C2" s="46" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"As a potential customer, I want to find out which plants are easiest to care for so that I can purchase low-maintenance options.")</f>
-        <v>As a potential customer, I want to find out which plants are easiest to care for so that I can purchase low-maintenance options.</v>
-      </c>
-      <c r="D2" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"1) Ability to sort plants by ""beginner,"" ""intermediate,"" and ""advanced"" 
-2) Ability to search for plants with similar care needs 
-")</f>
-        <v>1) Ability to sort plants by "beginner," "intermediate," and "advanced" 
-2) Ability to search for plants with similar care needs 
-</v>
-      </c>
-      <c r="E2" s="47" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"$$$")</f>
-        <v>$$$</v>
-      </c>
-      <c r="F2" s="15">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.0)</f>
-        <v>8</v>
-      </c>
-      <c r="G2" s="14" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Current Sprint")</f>
-        <v>Current Sprint</v>
-      </c>
+      <c r="B2" s="45"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="14"/>
       <c r="I2" s="48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J2" s="49" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="K2" s="49" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="O2" s="41"/>
       <c r="P2" s="41"/>
@@ -2815,38 +2769,13 @@
       <c r="Y2" s="41"/>
     </row>
     <row r="3">
-      <c r="A3" s="44" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Plant Care Initiatives")</f>
-        <v>Plant Care Initiatives</v>
-      </c>
-      <c r="B3" s="45" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Plant care tips")</f>
-        <v>Plant care tips</v>
-      </c>
-      <c r="C3" s="46" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"As a plant owner, I want to access care instructions easily so that I can keep my plant alive longer.")</f>
-        <v>As a plant owner, I want to access care instructions easily so that I can keep my plant alive longer.</v>
-      </c>
-      <c r="D3" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"1) Receive plant care leaflet with each order
-2) Option to sign up for monthly emails with seasonal care tips
-")</f>
-        <v>1) Receive plant care leaflet with each order
-2) Option to sign up for monthly emails with seasonal care tips
-</v>
-      </c>
-      <c r="E3" s="47" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"$$$")</f>
-        <v>$$$</v>
-      </c>
-      <c r="F3" s="15">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.0)</f>
-        <v>8</v>
-      </c>
-      <c r="G3" s="14" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Current Sprint")</f>
-        <v>Current Sprint</v>
-      </c>
+      <c r="A3" s="44"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="14"/>
       <c r="I3" s="50" t="s">
         <v>52</v>
       </c>
@@ -2868,38 +2797,13 @@
       <c r="Y3" s="41"/>
     </row>
     <row r="4">
-      <c r="A4" s="44" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Bonsai Trees")</f>
-        <v>Bonsai Trees</v>
-      </c>
-      <c r="B4" s="45" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Bonsai Selection")</f>
-        <v>Bonsai Selection</v>
-      </c>
-      <c r="C4" s="46" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"As a potential customer, I want to be able to select from a variety of different Bonsai trees so that I can pick the exact type I want.")</f>
-        <v>As a potential customer, I want to be able to select from a variety of different Bonsai trees so that I can pick the exact type I want.</v>
-      </c>
-      <c r="D4" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"1) Ability to select from multiple tree species 
-2) Options to sort by species, size, and care requirements
-")</f>
-        <v>1) Ability to select from multiple tree species 
-2) Options to sort by species, size, and care requirements
-</v>
-      </c>
-      <c r="E4" s="47" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"$$$")</f>
-        <v>$$$</v>
-      </c>
-      <c r="F4" s="15">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),13.0)</f>
-        <v>13</v>
-      </c>
-      <c r="G4" s="14" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Current Sprint")</f>
-        <v>Current Sprint</v>
-      </c>
+      <c r="A4" s="44"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="14"/>
       <c r="I4" s="50" t="s">
         <v>53</v>
       </c>
@@ -2921,38 +2825,13 @@
       <c r="Y4" s="41"/>
     </row>
     <row r="5">
-      <c r="A5" s="44" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Plant Care Initiatives")</f>
-        <v>Plant Care Initiatives</v>
-      </c>
-      <c r="B5" s="45" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Plant care tools")</f>
-        <v>Plant care tools</v>
-      </c>
-      <c r="C5" s="46" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"As a plant owner, I want to have the right tools to care for my plant so that I can keep it healthy and beautiful.")</f>
-        <v>As a plant owner, I want to have the right tools to care for my plant so that I can keep it healthy and beautiful.</v>
-      </c>
-      <c r="D5" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"1) Can purchase plant care starter kits (for ferns, succulents, vines, etc.)
-2) Option to buy partial kits or single tools
-")</f>
-        <v>1) Can purchase plant care starter kits (for ferns, succulents, vines, etc.)
-2) Option to buy partial kits or single tools
-</v>
-      </c>
-      <c r="E5" s="47" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"$$")</f>
-        <v>$$</v>
-      </c>
-      <c r="F5" s="15">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),13.0)</f>
-        <v>13</v>
-      </c>
-      <c r="G5" s="14" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Current Sprint")</f>
-        <v>Current Sprint</v>
-      </c>
+      <c r="A5" s="44"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="14"/>
       <c r="I5" s="53" t="s">
         <v>54</v>
       </c>
@@ -2978,48 +2857,23 @@
       <c r="Y5" s="41"/>
     </row>
     <row r="6">
-      <c r="A6" s="44" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Plant Care Initiatives")</f>
-        <v>Plant Care Initiatives</v>
-      </c>
-      <c r="B6" s="45" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Watering reminders")</f>
-        <v>Watering reminders</v>
-      </c>
-      <c r="C6" s="46" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"As a plant owner, I want to remember when to water my plants so that I don't under- or overwater them.")</f>
-        <v>As a plant owner, I want to remember when to water my plants so that I don't under- or overwater them.</v>
-      </c>
-      <c r="D6" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"1) Option to sign up for reminder texts or emails
-2) Option to add reminder stickers for use with calendars to each order
- ")</f>
-        <v>1) Option to sign up for reminder texts or emails
-2) Option to add reminder stickers for use with calendars to each order
- </v>
-      </c>
-      <c r="E6" s="47" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"$$")</f>
-        <v>$$</v>
-      </c>
-      <c r="F6" s="15">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5.0)</f>
-        <v>5</v>
-      </c>
-      <c r="G6" s="14" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Current Sprint")</f>
-        <v>Current Sprint</v>
-      </c>
+      <c r="A6" s="44"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="14"/>
       <c r="I6" s="53" t="s">
         <v>55</v>
       </c>
       <c r="J6" s="54">
         <f>sumifs(estimate,sprint,J$2)</f>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="K6" s="54">
         <f>sumifs(estimate,sprint,K$2)</f>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="L6" s="41"/>
       <c r="M6" s="41"/>
@@ -3037,48 +2891,23 @@
       <c r="Y6" s="41"/>
     </row>
     <row r="7">
-      <c r="A7" s="44" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Plant Care Initiatives")</f>
-        <v>Plant Care Initiatives</v>
-      </c>
-      <c r="B7" s="45" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Return policy")</f>
-        <v>Return policy</v>
-      </c>
-      <c r="C7" s="46" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"As a customer, I want a hassle-free way to return my order so that I can be sure I have the right plant for me.")</f>
-        <v>As a customer, I want a hassle-free way to return my order so that I can be sure I have the right plant for me.</v>
-      </c>
-      <c r="D7" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"1) Credit and return FAQ linked on homepage
-2) All orders ship with return labels and instructions
-")</f>
-        <v>1) Credit and return FAQ linked on homepage
-2) All orders ship with return labels and instructions
-</v>
-      </c>
-      <c r="E7" s="47" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"$$")</f>
-        <v>$$</v>
-      </c>
-      <c r="F7" s="15">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5.0)</f>
-        <v>5</v>
-      </c>
-      <c r="G7" s="14" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Current Sprint")</f>
-        <v>Current Sprint</v>
-      </c>
+      <c r="A7" s="44"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="14"/>
       <c r="I7" s="53" t="s">
         <v>56</v>
       </c>
       <c r="J7" s="54">
         <f>4*countifs(sprint,J2,value,"$$$$")+3*countifs(sprint,J2,value,"$$$")+2*countifs(sprint,J2,value,"$$")+countifs(sprint,J2,value,"$")</f>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="K7" s="54">
         <f>4*countifs(sprint,K2,value,"$$$$")+3*countifs(sprint,K2,value,"$$$")+2*countifs(sprint,K2,value,"$$")+countifs(sprint,K2,value,"$")</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L7" s="41"/>
       <c r="M7" s="41"/>
@@ -3096,38 +2925,13 @@
       <c r="Y7" s="41"/>
     </row>
     <row r="8">
-      <c r="A8" s="44" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Plant Care Initiatives")</f>
-        <v>Plant Care Initiatives</v>
-      </c>
-      <c r="B8" s="45" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Expert help &amp; advice")</f>
-        <v>Expert help &amp; advice</v>
-      </c>
-      <c r="C8" s="46" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"As a plant owner, I want to get expert help and advice quickly so that I know what to do if my plant gets sick. ")</f>
-        <v>As a plant owner, I want to get expert help and advice quickly so that I know what to do if my plant gets sick. </v>
-      </c>
-      <c r="D8" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"1) Access to live chat support 
-2) Longer phone support hours
-")</f>
-        <v>1) Access to live chat support 
-2) Longer phone support hours
-</v>
-      </c>
-      <c r="E8" s="47" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"$")</f>
-        <v>$</v>
-      </c>
-      <c r="F8" s="15">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.0)</f>
-        <v>8</v>
-      </c>
-      <c r="G8" s="14" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Current Sprint")</f>
-        <v>Current Sprint</v>
-      </c>
+      <c r="A8" s="44"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="14"/>
       <c r="I8" s="41"/>
       <c r="J8" s="41"/>
       <c r="K8" s="41"/>
@@ -3150,7 +2954,7 @@
       <c r="A9" s="44"/>
       <c r="B9" s="45"/>
       <c r="C9" s="46"/>
-      <c r="D9" s="23"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="47"/>
       <c r="F9" s="15"/>
       <c r="G9" s="14"/>
